--- a/112 - 自定义构造3 - Tutorial Panel System - 教程面板系统.xlsx
+++ b/112 - 自定义构造3 - Tutorial Panel System - 教程面板系统.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="插件指令" sheetId="4" r:id="rId1"/>
     <sheet name="插件参数" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -53,12 +66,24 @@
         </r>
       </text>
     </comment>
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Reveal?:是否重置</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="127">
   <si>
     <t>文档链接：</t>
   </si>
@@ -79,6 +104,48 @@
   </si>
   <si>
     <t>在不打开教程的情况下注册特定的教程ID Key。</t>
+  </si>
+  <si>
+    <t>Debug Plugin Commands  调试</t>
+  </si>
+  <si>
+    <t>Debug: Full Tutorial List?</t>
+  </si>
+  <si>
+    <r>
+      <t>查看完整的教程列表。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仅供游戏测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当游戏客户端关闭时重置。</t>
+    </r>
   </si>
   <si>
     <t>System Plugin Commands  系统</t>
@@ -160,6 +227,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">本教程的标题。显示在单独的窗口中。
 </t>
     </r>
@@ -179,6 +253,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">本教程所列的类别如下。
 </t>
     </r>
@@ -205,6 +286,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">显示与此页面关联的图像。
 </t>
     </r>
@@ -224,6 +312,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">说明：本页面的文字说明
 </t>
     </r>
@@ -424,6 +519,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">已打开类别的文本格式。
 </t>
     </r>
@@ -446,6 +548,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">已打关闭别的文本格式。
 </t>
     </r>
@@ -486,6 +595,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">在教程中隐藏战斗状态窗口
 </t>
     </r>
@@ -534,14 +650,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,34 +727,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -647,6 +735,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -656,41 +783,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -741,7 +836,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,12 +870,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,7 +909,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,43 +1011,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,121 +1047,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,21 +1108,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,6 +1141,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,159 +1214,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -1309,82 +1423,76 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1731,10 +1839,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1745,18 +1853,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="18.75" spans="1:2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="26"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -1774,29 +1882,43 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" ht="18.75" spans="1:2">
-      <c r="A7" s="30" t="s">
+    <row r="7" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
+      <c r="B7" s="26"/>
+    </row>
+    <row r="8" ht="27" spans="1:2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" ht="18.75" spans="1:2">
+      <c r="A10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="13" t="s">
         <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1814,7 +1936,7 @@
   <sheetPr/>
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -1822,585 +1944,585 @@
   <cols>
     <col min="1" max="1" width="25.625" customWidth="1"/>
     <col min="2" max="2" width="42.375" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="32.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" ht="27" spans="1:3">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="27" spans="1:4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:4">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="B4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:4">
+      <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:4">
-      <c r="A4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:4">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:4">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="B6" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:4">
-      <c r="A6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:4">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:4">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:4">
-      <c r="A8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="B8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:4">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:4">
+      <c r="A10"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" ht="27" spans="1:4">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:4">
-      <c r="A10"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" ht="27" spans="1:4">
-      <c r="A12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" ht="25.5" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" ht="25.5" spans="1:4">
-      <c r="A14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" ht="27" spans="1:4">
-      <c r="A15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="A15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" ht="25.5" spans="1:4">
       <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+        <v>40</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" ht="25.5" spans="1:2">
       <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="A20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>48</v>
+      <c r="A22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="A23" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="A27" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="27" t="s">
-        <v>71</v>
+      <c r="A30" s="23" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A32" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
+      <c r="A32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="A37" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" ht="40.5" spans="1:2">
-      <c r="A38" s="25" t="s">
-        <v>84</v>
+      <c r="A38" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="A39" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="A43" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
     </row>
     <row r="44" ht="25.5" spans="1:3">
       <c r="A44" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="45" ht="25.5" spans="1:3">
       <c r="A45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="27" t="s">
-        <v>71</v>
+      <c r="A47" s="23" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A49" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
+      <c r="A49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
+      <c r="A50" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
     </row>
     <row r="51" ht="25.5" spans="1:3">
       <c r="A51" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>81</v>
+        <v>115</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="27" t="s">
-        <v>71</v>
+      <c r="A52" s="23" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A54" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="7"/>
+      <c r="A54" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>81</v>
+        <v>120</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>81</v>
+        <v>122</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>78</v>
+        <v>124</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A59" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="7"/>
+      <c r="A59" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="27" t="s">
-        <v>85</v>
+      <c r="A60" s="23" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/112 - 自定义构造3 - Tutorial Panel System - 教程面板系统.xlsx
+++ b/112 - 自定义构造3 - Tutorial Panel System - 教程面板系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="插件指令" sheetId="4" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="140">
   <si>
     <t>文档链接：</t>
   </si>
@@ -113,6 +113,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>查看完整的教程列表。</t>
     </r>
     <r>
@@ -617,6 +624,71 @@
     </r>
   </si>
   <si>
+    <t>Windows &gt; Pages Window  窗口 - 页面窗口</t>
+  </si>
+  <si>
+    <t>Background Type:</t>
+  </si>
+  <si>
+    <t>选择背景类型</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>JS: X, Y, W, H:</t>
+  </si>
+  <si>
+    <t>用于确定此窗口尺寸的代码。</t>
+  </si>
+  <si>
+    <t>Windows &gt; Description Window    窗口 - 描述窗口</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Windows &gt; Picture Window  窗口 - 图片窗口</t>
+  </si>
+  <si>
+    <t>Windows &gt; Title Window  窗口 - 标题窗口</t>
+  </si>
+  <si>
+    <t>Windows &gt; Button Assist Window  窗口 - 按钮辅助窗口</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">选择背景类型
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要：VisuMZ_0_CoreEngine!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">用于确定此窗口尺寸的代码。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要：VisuMZ_0_CoreEngine!</t>
+    </r>
+  </si>
+  <si>
     <t>Options Settings</t>
   </si>
   <si>
@@ -657,7 +729,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -871,6 +943,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1359,7 +1438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1432,6 +1511,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1440,9 +1525,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1841,7 +1923,7 @@
   <sheetPr/>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1853,18 +1935,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="18.75" spans="1:2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="28"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -1883,16 +1965,16 @@
       </c>
     </row>
     <row r="7" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="28"/>
     </row>
     <row r="8" ht="27" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1900,7 +1982,7 @@
       <c r="B9" s="8"/>
     </row>
     <row r="10" ht="18.75" spans="1:2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="8"/>
@@ -1934,10 +2016,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2459,69 +2541,227 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A54" s="4" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B52" s="18"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="B53" t="s">
         <v>119</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C53" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="3" t="s">
+    </row>
+    <row r="54" customFormat="1" spans="1:4">
+      <c r="A54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" customFormat="1" spans="1:4">
+      <c r="A55" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+    </row>
+    <row r="56" customFormat="1" spans="1:4">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" customFormat="1" spans="1:4">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" customFormat="1" spans="1:4">
+      <c r="A58" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+    </row>
+    <row r="59" customFormat="1" spans="1:4">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" customFormat="1" spans="1:4">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" customFormat="1" spans="1:4">
+      <c r="A61" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+    </row>
+    <row r="62" customFormat="1" spans="1:4">
+      <c r="A62" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" customFormat="1" spans="1:4">
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" customFormat="1" spans="1:4">
+      <c r="A64" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+    </row>
+    <row r="65" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A65" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" customFormat="1" ht="25.5" spans="1:4">
+      <c r="A66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" customFormat="1" spans="3:4">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A68" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="3" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" s="3" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D71" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A59" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="23" t="s">
+    <row r="73" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A73" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="23" t="s">
         <v>88</v>
       </c>
     </row>
